--- a/biology/Zoologie/Blaberoidea/Blaberoidea.xlsx
+++ b/biology/Zoologie/Blaberoidea/Blaberoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blaberoidea sont une super-famille d'insectes comprenant une grande partie des blattes.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (27 avril 2024)[1], cette super-famille comprend les deux familles Blaberidae et Blattellidae. Depuis les nouvelles analyses phylogénétiques, cette super-famille compte cinq familles[2],[3]  : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 avril 2024), cette super-famille comprend les deux familles Blaberidae et Blattellidae. Depuis les nouvelles analyses phylogénétiques, cette super-famille compte cinq familles,  : 
 Blaberidae Brunner von Wattenwyl, 1865
 Blattellidae Karny, 1908
 Ectobiidae, devenue famille non synonyme de Battellidae
@@ -572,11 +588,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Blaberoidea Saussure, 1864[4].
-Phylogénie
-Les plus récentes analyses phylogénétiques basées sur quatre gènes mitochondriaux et trois gènes nucléaires démontrent que cette super-famille est globalement monophylétiques pour la famille des Blaberidae. Par contre, la famille des Blattellidae se révèle être hétérophylétique et se retrouve être re-structurée en trois familles distinctes comprenant les Blattelidae, les Ectobiidae et les Nyctiboridae[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Blaberoidea Saussure, 1864.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blaberoidea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blaberoidea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus récentes analyses phylogénétiques basées sur quatre gènes mitochondriaux et trois gènes nucléaires démontrent que cette super-famille est globalement monophylétiques pour la famille des Blaberidae. Par contre, la famille des Blattellidae se révèle être hétérophylétique et se retrouve être re-structurée en trois familles distinctes comprenant les Blattelidae, les Ectobiidae et les Nyctiboridae.
 </t>
         </is>
       </c>
